--- a/neuron/d.xlsx
+++ b/neuron/d.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\doc\在职研\人民大学\数学软件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\doc\在职研\人民大学\数学软件\neuron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534A5A62-C168-45CB-B71C-9564A6C8A826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB255123-F00A-4F16-81DC-9B8A8E0E96E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原始数据_202107241546_0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="530">
   <si>
     <t>答题序号</t>
   </si>
@@ -1607,13 +1607,25 @@
   </si>
   <si>
     <t>221.221.51.248</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>比例</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1637,6 +1649,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1646,7 +1664,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1669,13 +1687,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1686,6 +1715,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2000,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2011,7 +2043,7 @@
     <col min="1" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4">
+    <row r="1" spans="1:15" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,8 +2086,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.4">
+      <c r="O1" s="4" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="14.4">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2096,8 +2131,12 @@
       <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.4">
+      <c r="O2">
+        <f>D2/E2</f>
+        <v>0.98888888888888893</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="14.4">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2138,8 +2177,12 @@
       <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.4">
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="0">D3/E3</f>
+        <v>1.2666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="14.4">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2180,8 +2223,12 @@
       <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.4">
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>1.2740740740740741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2222,8 +2269,12 @@
       <c r="N5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.4">
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>0.9838709677419355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="14.4">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2262,8 +2313,12 @@
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="14.4">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>1.213235294117647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2304,8 +2359,12 @@
       <c r="N7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="14.4">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>1.1125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="14.4">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2346,8 +2405,12 @@
       <c r="N8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="14.4">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>1.3106060606060606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2388,8 +2451,12 @@
       <c r="N9" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="14.4">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>1.4230769230769231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2430,8 +2497,12 @@
       <c r="N10" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="14.4">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="14.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2472,8 +2543,12 @@
       <c r="N11" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="14.4">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>1.2123287671232876</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2514,8 +2589,12 @@
       <c r="N12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="14.4">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>1.323076923076923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2556,8 +2635,12 @@
       <c r="N13" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="14.4">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>1.3440000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2598,8 +2681,12 @@
       <c r="N14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="14.4">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>1.0465116279069768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2636,8 +2723,12 @@
       <c r="N15" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="14.4">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>1.2647058823529411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.4">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2678,8 +2769,12 @@
       <c r="N16" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="14.4">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="14.4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2720,8 +2815,12 @@
       <c r="N17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="14.4">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>1.2384615384615385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2762,8 +2861,12 @@
       <c r="N18" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="14.4">
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>1.5238095238095237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2804,8 +2907,12 @@
       <c r="N19" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="14.4">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1.3359375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2842,8 +2949,12 @@
       <c r="N20" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="14.4">
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1.0111111111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2884,8 +2995,12 @@
       <c r="N21" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="14.4">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1.1466666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2926,8 +3041,12 @@
       <c r="N22" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="14.4">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1.0602409638554218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2968,8 +3087,12 @@
       <c r="N23" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="14.4">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>1.6632653061224489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3010,8 +3133,12 @@
       <c r="N24" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="14.4">
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>1.607843137254902</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="14.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3052,8 +3179,12 @@
       <c r="N25" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.4">
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>1.4782608695652173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3094,8 +3225,12 @@
       <c r="N26" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="14.4">
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>1.2615384615384615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="14.4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3136,8 +3271,12 @@
       <c r="N27" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="14.4">
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>1.0342857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="14.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3178,8 +3317,12 @@
       <c r="N28" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="14.4">
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>1.5238095238095237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="14.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3220,8 +3363,12 @@
       <c r="N29" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="14.4">
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="14.4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3262,8 +3409,12 @@
       <c r="N30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.4">
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>1.1024096385542168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14.4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3304,8 +3455,12 @@
       <c r="N31" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="14.4">
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>1.2962962962962963</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="14.4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3346,8 +3501,12 @@
       <c r="N32" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="14.4">
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>1.6274509803921569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3388,8 +3547,12 @@
       <c r="N33" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="14.4">
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>1.645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3430,8 +3593,12 @@
       <c r="N34" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="14.4">
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>1.2318840579710144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3472,8 +3639,12 @@
       <c r="N35" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="14.4">
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="14.4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3514,8 +3685,12 @@
       <c r="N36" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="14.4">
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>1.2878787878787878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="14.4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3556,8 +3731,12 @@
       <c r="N37" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="14.4">
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>1.2068965517241379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="14.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3598,8 +3777,12 @@
       <c r="N38" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="14.4">
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>1.2357142857142858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="14.4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3640,8 +3823,12 @@
       <c r="N39" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="14.4">
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>1.2447552447552448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="14.4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3682,8 +3869,12 @@
       <c r="N40" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="14.4">
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>1.0113636363636365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="14.4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3724,8 +3915,12 @@
       <c r="N41" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="14.4">
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="14.4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3766,8 +3961,12 @@
       <c r="N42" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="14.4">
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>1.5566037735849056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="14.4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -3808,8 +4007,12 @@
       <c r="N43" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="14.4">
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="14.4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -3850,8 +4053,12 @@
       <c r="N44" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="14.4">
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="14.4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -3892,8 +4099,12 @@
       <c r="N45" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="14.4">
+      <c r="O45">
+        <f t="shared" si="0"/>
+        <v>1.2068965517241379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="14.4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3934,8 +4145,12 @@
       <c r="N46" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="14.4">
+      <c r="O46">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="14.4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3976,8 +4191,12 @@
       <c r="N47" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="14.4">
+      <c r="O47">
+        <f t="shared" si="0"/>
+        <v>1.3770491803278688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="14.4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4018,8 +4237,12 @@
       <c r="N48" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="14.4">
+      <c r="O48">
+        <f t="shared" si="0"/>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="14.4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4060,8 +4283,12 @@
       <c r="N49" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="14.4">
+      <c r="O49">
+        <f t="shared" si="0"/>
+        <v>1.4576271186440677</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="14.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4102,8 +4329,12 @@
       <c r="N50" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="14.4">
+      <c r="O50">
+        <f t="shared" si="0"/>
+        <v>1.2785714285714285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="14.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4144,8 +4375,12 @@
       <c r="N51" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="14.4">
+      <c r="O51">
+        <f t="shared" si="0"/>
+        <v>1.3257575757575757</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="14.4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4186,8 +4421,12 @@
       <c r="N52" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="14.4">
+      <c r="O52">
+        <f t="shared" si="0"/>
+        <v>1.4666666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="14.4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4228,8 +4467,12 @@
       <c r="N53" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="14.4">
+      <c r="O53">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="14.4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4270,8 +4513,12 @@
       <c r="N54" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="14.4">
+      <c r="O54">
+        <f t="shared" si="0"/>
+        <v>1.4545454545454546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="14.4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4312,8 +4559,12 @@
       <c r="N55" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="14.4">
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>1.1655172413793105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="14.4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4354,8 +4605,12 @@
       <c r="N56" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="14.4">
+      <c r="O56">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="14.4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4396,8 +4651,12 @@
       <c r="N57" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="14.4">
+      <c r="O57">
+        <f t="shared" si="0"/>
+        <v>1.4298245614035088</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="14.4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4438,8 +4697,12 @@
       <c r="N58" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="14.4">
+      <c r="O58">
+        <f t="shared" si="0"/>
+        <v>1.5135135135135136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="14.4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4480,8 +4743,12 @@
       <c r="N59" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="14.4">
+      <c r="O59">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="14.4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4522,8 +4789,12 @@
       <c r="N60" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="14.4">
+      <c r="O60">
+        <f t="shared" si="0"/>
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="14.4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4564,8 +4835,12 @@
       <c r="N61" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="14.4">
+      <c r="O61">
+        <f t="shared" si="0"/>
+        <v>1.5673076923076923</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="14.4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -4606,8 +4881,12 @@
       <c r="N62" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="14.4">
+      <c r="O62">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="14.4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -4648,8 +4927,12 @@
       <c r="N63" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="14.4">
+      <c r="O63">
+        <f t="shared" si="0"/>
+        <v>1.2692307692307692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="14.4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -4690,8 +4973,12 @@
       <c r="N64" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="14.4">
+      <c r="O64">
+        <f t="shared" si="0"/>
+        <v>1.108974358974359</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="14.4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -4732,8 +5019,12 @@
       <c r="N65" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="14.4">
+      <c r="O65">
+        <f t="shared" si="0"/>
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="14.4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -4774,8 +5065,12 @@
       <c r="N66" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="14.4">
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="14.4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -4816,8 +5111,12 @@
       <c r="N67" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="14.4">
+      <c r="O67">
+        <f t="shared" ref="O67:O106" si="1">D67/E67</f>
+        <v>1.1333333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="14.4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -4858,8 +5157,12 @@
       <c r="N68" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="14.4">
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>1.6176470588235294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="14.4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -4900,8 +5203,12 @@
       <c r="N69" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="14.4">
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>1.4727272727272727</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="14.4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -4942,8 +5249,12 @@
       <c r="N70" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="14.4">
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>1.4083333333333334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="14.4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -4984,8 +5295,12 @@
       <c r="N71" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="14.4">
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>1.2173913043478262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="14.4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5026,8 +5341,12 @@
       <c r="N72" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="14.4">
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>1.4333333333333333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="14.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5066,8 +5385,12 @@
       <c r="N73" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="14.4">
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>1.1075949367088607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="14.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5108,8 +5431,12 @@
       <c r="N74" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="14.4">
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>1.4830508474576272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="14.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5150,8 +5477,12 @@
       <c r="N75" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="14.4">
+      <c r="O75">
+        <f t="shared" si="1"/>
+        <v>1.108974358974359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="14.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5192,8 +5523,12 @@
       <c r="N76" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="14.4">
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="14.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5234,8 +5569,12 @@
       <c r="N77" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="14.4">
+      <c r="O77">
+        <f t="shared" si="1"/>
+        <v>1.3902439024390243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="14.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5276,8 +5615,12 @@
       <c r="N78" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="14.4">
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>1.4833333333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="14.4">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5318,8 +5661,12 @@
       <c r="N79" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="14.4">
+      <c r="O79">
+        <f t="shared" si="1"/>
+        <v>1.5043478260869565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="14.4">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5360,8 +5707,12 @@
       <c r="N80" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="14.4">
+      <c r="O80">
+        <f t="shared" si="1"/>
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="14.4">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -5402,8 +5753,12 @@
       <c r="N81" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="14.4">
+      <c r="O81">
+        <f t="shared" si="1"/>
+        <v>1.4173913043478261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="14.4">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -5444,8 +5799,12 @@
       <c r="N82" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="14.4">
+      <c r="O82">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="14.4">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -5486,8 +5845,12 @@
       <c r="N83" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="14.4">
+      <c r="O83">
+        <f t="shared" si="1"/>
+        <v>1.2152777777777777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="14.4">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -5528,8 +5891,12 @@
       <c r="N84" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="14.4">
+      <c r="O84">
+        <f t="shared" si="1"/>
+        <v>1.6276595744680851</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="14.4">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -5570,8 +5937,12 @@
       <c r="N85" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="14.4">
+      <c r="O85">
+        <f t="shared" si="1"/>
+        <v>1.3898305084745763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="14.4">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -5612,8 +5983,12 @@
       <c r="N86" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="14.4">
+      <c r="O86">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="14.4">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -5654,8 +6029,12 @@
       <c r="N87" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="14.4">
+      <c r="O87">
+        <f t="shared" si="1"/>
+        <v>1.4583333333333333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="14.4">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -5696,8 +6075,12 @@
       <c r="N88" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="14.4">
+      <c r="O88">
+        <f t="shared" si="1"/>
+        <v>1.10625</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="14.4">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -5738,8 +6121,12 @@
       <c r="N89" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="14.4">
+      <c r="O89">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="14.4">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -5780,8 +6167,12 @@
       <c r="N90" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="14.4">
+      <c r="O90">
+        <f t="shared" si="1"/>
+        <v>1.3769230769230769</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="14.4">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -5822,8 +6213,12 @@
       <c r="N91" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="14.4">
+      <c r="O91">
+        <f t="shared" si="1"/>
+        <v>1.3076923076923077</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="14.4">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -5864,8 +6259,12 @@
       <c r="N92" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="14.4">
+      <c r="O92">
+        <f t="shared" si="1"/>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="14.4">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -5906,8 +6305,12 @@
       <c r="N93" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="14.4">
+      <c r="O93">
+        <f t="shared" si="1"/>
+        <v>1.2846153846153847</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="14.4">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5948,8 +6351,12 @@
       <c r="N94" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="14.4">
+      <c r="O94">
+        <f t="shared" si="1"/>
+        <v>1.2461538461538462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="14.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5990,8 +6397,12 @@
       <c r="N95" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="14.4">
+      <c r="O95">
+        <f t="shared" si="1"/>
+        <v>1.286764705882353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="14.4">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -6032,8 +6443,12 @@
       <c r="N96" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="14.4">
+      <c r="O96">
+        <f t="shared" si="1"/>
+        <v>1.1724137931034482</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="14.4">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -6074,8 +6489,12 @@
       <c r="N97" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="14.4">
+      <c r="O97">
+        <f t="shared" si="1"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="14.4">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -6116,8 +6535,12 @@
       <c r="N98" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="14.4">
+      <c r="O98">
+        <f t="shared" si="1"/>
+        <v>1.1971830985915493</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="14.4">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -6158,8 +6581,12 @@
       <c r="N99" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="14.4">
+      <c r="O99">
+        <f t="shared" si="1"/>
+        <v>1.6826923076923077</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="14.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -6200,8 +6627,12 @@
       <c r="N100" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="14.4">
+      <c r="O100">
+        <f t="shared" si="1"/>
+        <v>1.6346153846153846</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="14.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -6242,8 +6673,12 @@
       <c r="N101" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="14.4">
+      <c r="O101">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="14.4">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -6284,8 +6719,12 @@
       <c r="N102" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="14.4">
+      <c r="O102">
+        <f t="shared" si="1"/>
+        <v>0.9631578947368421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="14.4">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -6326,8 +6765,12 @@
       <c r="N103" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="14.4">
+      <c r="O103">
+        <f t="shared" si="1"/>
+        <v>1.2428571428571429</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="14.4">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -6368,8 +6811,12 @@
       <c r="N104" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="14.4">
+      <c r="O104">
+        <f t="shared" si="1"/>
+        <v>1.2761194029850746</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="14.4">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -6410,8 +6857,12 @@
       <c r="N105" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="14.4">
+      <c r="O105">
+        <f t="shared" si="1"/>
+        <v>1.323076923076923</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="14.4">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -6451,6 +6902,10 @@
       </c>
       <c r="N106" s="2" t="s">
         <v>276</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="1"/>
+        <v>1.7142857142857142</v>
       </c>
     </row>
   </sheetData>
